--- a/Dados/generic_input_case.xlsx
+++ b/Dados/generic_input_case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabri\Desktop\Portifólio Python\TransformacaoDigital\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabri\Desktop\Portifólio Python\TransformacaoDigital\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{108F99BF-83F6-4814-AA4F-255579C8100D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA6A022-1E55-4C99-BF0F-1FCAF89F8D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="775" activeTab="5" xr2:uid="{B76C3656-19BD-4FF6-873F-76AE5964163A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="775" activeTab="3" xr2:uid="{B76C3656-19BD-4FF6-873F-76AE5964163A}"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZONTE" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="ROTA" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BD_UP!$A$1:$N$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BD_UP!$A$1:$M$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FABRICA!$A$1:$F$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FROTA!$A$1:$D$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GRUA!$A$1:$C$4</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="75">
   <si>
     <t>MES</t>
   </si>
@@ -234,9 +234,6 @@
     <t>RD</t>
   </si>
   <si>
-    <t>Pegar com Italo do time do Clayton</t>
-  </si>
-  <si>
     <t>ANO</t>
   </si>
   <si>
@@ -268,6 +265,46 @@
   </si>
   <si>
     <t>PORCENTAGEM_VEICULOS_MIN</t>
+  </si>
+  <si>
+    <t>Considerando o script abaixo, dê continuidade e defina as variáveis de decisão, considerando as informações delimitado por """.  Caso tenha alguma dúvida me pergunte.</t>
+  </si>
+  <si>
+    <t>"_x000D_
+nome do arquivo: generic_input_case.xlsx_x000D_
+_x000D_
+Hoje existem uma série de fazendas, divididas em UPs (Unidades Produtivas), com um VOLUME de madeira para ser transportado. Esse transporte deve ser planejado com granularidade diária, com o melhor sequenciamento possível. A aba HORIZONTE contempla o horizonte de dias de planejamento e a aba BD_UP tem informação das UPs, Fazendas e respectivos volumes, além de outras informações._x000D_
+_x000D_
+A frota de caminhões disponíveis para transporte está na aba FROTA com seu respectivo número mínimo e máximo de caminhões a serem utilizados._x000D_
+_x000D_
+As GRUAS são usadas para carregamento dos caminhões com a madeira que está no campo. Uma transportadora pode estar simultaneamente em um número máximo de UPs igual ao número de gruas disponível._x000D_
+_x000D_
+A Fábrica tem uma demanda diária com uma restrição da qualidade da madeira denominada RSP (ver aba FABRICA). A média dos RSPs de cada UP, ponderada pelos volumes transportados diariamente, deve estar dentro dos limites dados pela Fábrica._x000D_
+_x000D_
+A aba ROTA possui informação da Caixa de Carga do caminhão (volume transportado em uma viagem) e o tempo de ciclo (quantidade de viagens possíveis em 1 dia para cada caminhão). Esta aba possui também a tupla (ORIGEM, DESTINO, TRANSPORTADOR) para mostrar quais transportadores podem transportar de uma certa fazenda para a Fábrica. O único destino possível é a Fábrica._x000D_
+_x000D_
+_x000D_
+Aba HORIZONTE_x000D_
+colunas: dia, mês, ano e ciclo lento_x000D_
+_x000D_
+Aba FROTA_x000D_
+colunas: TRANSPORTADOR, DIA, FROTA_MIN, FROTA_MAX_x000D_
+_x000D_
+Aba GRUA_x000D_
+colunas: TRANSPORTADOR, QTD_GRUAS, PORCENTAGEM_VEICULOS_MIN_x000D_
+_x000D_
+Aba BD_UP_x000D_
+Colunas: UP, FAZENDA, DB, VOLUME, RSP, DATA_COLHEITA, IDADE_FLORESTA, IMA, RD, RESERVADO, CLONE, ESPECIE, PRECIPITACAO_x000D_
+_x000D_
+Aba FABRICA_x000D_
+Colunas: DIA, FABRICA, DEMANDA_MIN, DEMANDA_MAX, RSP_MIN, RSP_MAX_x000D_
+_x000D_
+Aba ROTA_x000D_
+Colunas: ORIGEM, DESTINO, TRANSPORTADOR,	CAIXA_CARGA, TEMPO_CICLO, CICLO_LENTO,	Fazenda_x000D_
+"</t>
+  </si>
+  <si>
+    <t>Continua no proximo prompt...</t>
   </si>
 </sst>
 </file>
@@ -276,8 +313,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="166" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -366,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -398,19 +435,19 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -418,6 +455,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -756,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -773,7 +813,7 @@
         <v>2020</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -853,7 +893,7 @@
         <v>2020</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -933,7 +973,7 @@
         <v>2020</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1013,7 +1053,7 @@
         <v>2020</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1126,15 +1166,16 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="21.7265625" style="1"/>
+    <col min="1" max="5" width="21.7265625" style="1"/>
+    <col min="7" max="16384" width="21.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1204,7 +1245,9 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1216,10 +1259,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1266,20 +1309,18 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="13" width="24" style="1"/>
-    <col min="14" max="14" width="30.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="24" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
@@ -1308,19 +1349,19 @@
         <v>60</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -1346,16 +1387,13 @@
         <v>31.105940463689276</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M2" s="1">
         <v>100</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>41</v>
       </c>
@@ -1381,13 +1419,13 @@
         <v>33.612012874385329</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M3" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>40</v>
       </c>
@@ -1413,13 +1451,13 @@
         <v>36.41509189466484</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M4" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -1445,10 +1483,10 @@
         <v>33.664280012639033</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1474,10 +1512,10 @@
         <v>37.094202016539157</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1503,10 +1541,10 @@
         <v>36.847675606582392</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1532,10 +1570,10 @@
         <v>38.01921855157687</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1561,10 +1599,10 @@
         <v>43.012443931398415</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1590,10 +1628,10 @@
         <v>40.769955874489803</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -1619,12 +1657,12 @@
         <v>35.705445947553002</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1650,10 +1688,10 @@
         <v>40.769955874489803</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
@@ -1679,10 +1717,10 @@
         <v>33.757295038359203</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -1708,10 +1746,10 @@
         <v>41.719651546151823</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1737,10 +1775,10 @@
         <v>38.70298074942955</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -1766,7 +1804,7 @@
         <v>36.216732818894698</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1795,7 +1833,7 @@
         <v>36.357830602429061</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1824,7 +1862,7 @@
         <v>38.454954205598455</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1853,7 +1891,7 @@
         <v>39.123928185894655</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1882,7 +1920,7 @@
         <v>39.872852330729167</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -1911,7 +1949,7 @@
         <v>41.543043674671054</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -1940,7 +1978,7 @@
         <v>41.595753106122892</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -1969,7 +2007,7 @@
         <v>43.769052401896552</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -1998,7 +2036,7 @@
         <v>42.047073134257424</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -2027,7 +2065,7 @@
         <v>42.004693204411758</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -2056,7 +2094,7 @@
         <v>36.216732818894698</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -2085,7 +2123,7 @@
         <v>40.728798491739646</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -2099,7 +2137,7 @@
       <c r="H28" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N27" xr:uid="{BA105F68-BC88-49C9-83F1-33D60298D00F}"/>
+  <autoFilter ref="A1:M27" xr:uid="{BA105F68-BC88-49C9-83F1-33D60298D00F}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -2112,7 +2150,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2774,10 +2812,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2785,7 +2823,7 @@
     <col min="1" max="16384" width="20.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
@@ -2802,13 +2840,13 @@
         <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -2832,7 +2870,7 @@
         <v>INDIANA II</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -2856,7 +2894,7 @@
         <v>INDIANA II</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -2879,8 +2917,11 @@
         <f>VLOOKUP(A4,BD_UP!A:B,2,FALSE)</f>
         <v>INDIANA II</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -2904,7 +2945,7 @@
         <v>INDIANA II</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -2928,7 +2969,7 @@
         <v>INDIANA II</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2952,7 +2993,7 @@
         <v>INDIANA II</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -2975,8 +3016,11 @@
         <f>VLOOKUP(A8,BD_UP!A:B,2,FALSE)</f>
         <v>INDIANA II</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -3000,7 +3044,7 @@
         <v>INDIANA II</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -3023,8 +3067,11 @@
         <f>VLOOKUP(A10,BD_UP!A:B,2,FALSE)</f>
         <v>INDIANA II</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
@@ -3048,7 +3095,7 @@
         <v>INDIANA II</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
@@ -3071,8 +3118,11 @@
         <f>VLOOKUP(A12,BD_UP!A:B,2,FALSE)</f>
         <v>TURVO III (LEX)</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -3096,7 +3146,7 @@
         <v>TURVO III (LEX)</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
@@ -3120,7 +3170,7 @@
         <v>TURVO III (LEX)</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
@@ -3144,7 +3194,7 @@
         <v>TURVO III (LEX)</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -3787,21 +3837,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010029C947AC83F09F42937526FA4C3B2F0B" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c76eee49a865dbe713b2cfd386adcc48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="44d793b3-ee81-4ce8-b8ec-eb022d1da4c8" xmlns:ns3="992b5de9-d7c4-4c11-af05-7c0f6d15d2a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2cbf0d2c042e35d650edddd481e70c1e" ns2:_="" ns3:_="">
     <xsd:import namespace="44d793b3-ee81-4ce8-b8ec-eb022d1da4c8"/>
@@ -4018,32 +4053,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F035638-0916-4274-A1B6-7D831BF3E226}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="44d793b3-ee81-4ce8-b8ec-eb022d1da4c8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="992b5de9-d7c4-4c11-af05-7c0f6d15d2a0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ED53755-58A3-4583-AA46-90E9773BFC17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A313BA7B-C984-489F-898D-BA45F17F45A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4060,4 +4085,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ED53755-58A3-4583-AA46-90E9773BFC17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F035638-0916-4274-A1B6-7D831BF3E226}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="44d793b3-ee81-4ce8-b8ec-eb022d1da4c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="992b5de9-d7c4-4c11-af05-7c0f6d15d2a0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Dados/generic_input_case.xlsx
+++ b/Dados/generic_input_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabri\Desktop\Portifólio Python\TransformacaoDigital\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA6A022-1E55-4C99-BF0F-1FCAF89F8D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EB885A-B94C-436E-A76D-7B07C89B6D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="775" activeTab="3" xr2:uid="{B76C3656-19BD-4FF6-873F-76AE5964163A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="775" activeTab="5" xr2:uid="{B76C3656-19BD-4FF6-873F-76AE5964163A}"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZONTE" sheetId="3" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="72">
   <si>
     <t>MES</t>
   </si>
@@ -265,46 +265,6 @@
   </si>
   <si>
     <t>PORCENTAGEM_VEICULOS_MIN</t>
-  </si>
-  <si>
-    <t>Considerando o script abaixo, dê continuidade e defina as variáveis de decisão, considerando as informações delimitado por """.  Caso tenha alguma dúvida me pergunte.</t>
-  </si>
-  <si>
-    <t>"_x000D_
-nome do arquivo: generic_input_case.xlsx_x000D_
-_x000D_
-Hoje existem uma série de fazendas, divididas em UPs (Unidades Produtivas), com um VOLUME de madeira para ser transportado. Esse transporte deve ser planejado com granularidade diária, com o melhor sequenciamento possível. A aba HORIZONTE contempla o horizonte de dias de planejamento e a aba BD_UP tem informação das UPs, Fazendas e respectivos volumes, além de outras informações._x000D_
-_x000D_
-A frota de caminhões disponíveis para transporte está na aba FROTA com seu respectivo número mínimo e máximo de caminhões a serem utilizados._x000D_
-_x000D_
-As GRUAS são usadas para carregamento dos caminhões com a madeira que está no campo. Uma transportadora pode estar simultaneamente em um número máximo de UPs igual ao número de gruas disponível._x000D_
-_x000D_
-A Fábrica tem uma demanda diária com uma restrição da qualidade da madeira denominada RSP (ver aba FABRICA). A média dos RSPs de cada UP, ponderada pelos volumes transportados diariamente, deve estar dentro dos limites dados pela Fábrica._x000D_
-_x000D_
-A aba ROTA possui informação da Caixa de Carga do caminhão (volume transportado em uma viagem) e o tempo de ciclo (quantidade de viagens possíveis em 1 dia para cada caminhão). Esta aba possui também a tupla (ORIGEM, DESTINO, TRANSPORTADOR) para mostrar quais transportadores podem transportar de uma certa fazenda para a Fábrica. O único destino possível é a Fábrica._x000D_
-_x000D_
-_x000D_
-Aba HORIZONTE_x000D_
-colunas: dia, mês, ano e ciclo lento_x000D_
-_x000D_
-Aba FROTA_x000D_
-colunas: TRANSPORTADOR, DIA, FROTA_MIN, FROTA_MAX_x000D_
-_x000D_
-Aba GRUA_x000D_
-colunas: TRANSPORTADOR, QTD_GRUAS, PORCENTAGEM_VEICULOS_MIN_x000D_
-_x000D_
-Aba BD_UP_x000D_
-Colunas: UP, FAZENDA, DB, VOLUME, RSP, DATA_COLHEITA, IDADE_FLORESTA, IMA, RD, RESERVADO, CLONE, ESPECIE, PRECIPITACAO_x000D_
-_x000D_
-Aba FABRICA_x000D_
-Colunas: DIA, FABRICA, DEMANDA_MIN, DEMANDA_MAX, RSP_MIN, RSP_MAX_x000D_
-_x000D_
-Aba ROTA_x000D_
-Colunas: ORIGEM, DESTINO, TRANSPORTADOR,	CAIXA_CARGA, TEMPO_CICLO, CICLO_LENTO,	Fazenda_x000D_
-"</t>
-  </si>
-  <si>
-    <t>Continua no proximo prompt...</t>
   </si>
 </sst>
 </file>
@@ -403,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,9 +415,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1311,7 +1268,7 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -2812,18 +2769,24 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="20.1796875" style="1"/>
+    <col min="1" max="1" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
@@ -2846,7 +2809,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -2870,7 +2833,7 @@
         <v>INDIANA II</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -2894,7 +2857,7 @@
         <v>INDIANA II</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -2917,11 +2880,8 @@
         <f>VLOOKUP(A4,BD_UP!A:B,2,FALSE)</f>
         <v>INDIANA II</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -2945,7 +2905,7 @@
         <v>INDIANA II</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -2969,7 +2929,7 @@
         <v>INDIANA II</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2993,7 +2953,7 @@
         <v>INDIANA II</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -3016,11 +2976,8 @@
         <f>VLOOKUP(A8,BD_UP!A:B,2,FALSE)</f>
         <v>INDIANA II</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -3044,7 +3001,7 @@
         <v>INDIANA II</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -3067,11 +3024,8 @@
         <f>VLOOKUP(A10,BD_UP!A:B,2,FALSE)</f>
         <v>INDIANA II</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
@@ -3095,7 +3049,7 @@
         <v>INDIANA II</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
@@ -3118,11 +3072,8 @@
         <f>VLOOKUP(A12,BD_UP!A:B,2,FALSE)</f>
         <v>TURVO III (LEX)</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -3146,7 +3097,7 @@
         <v>TURVO III (LEX)</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
@@ -3170,7 +3121,7 @@
         <v>TURVO III (LEX)</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
@@ -3194,7 +3145,7 @@
         <v>TURVO III (LEX)</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -3218,7 +3169,7 @@
         <v>TURVO III (LEX)</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3242,7 +3193,7 @@
         <v>TURVO III (LEX)</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -3266,7 +3217,7 @@
         <v>TURVO III (LEX)</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -3290,7 +3241,7 @@
         <v>TURVO III (LEX)</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -3314,7 +3265,7 @@
         <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -3338,7 +3289,7 @@
         <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -3362,7 +3313,7 @@
         <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -3386,7 +3337,7 @@
         <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
@@ -3410,7 +3361,7 @@
         <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
@@ -3434,7 +3385,7 @@
         <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -3458,7 +3409,7 @@
         <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -3482,7 +3433,7 @@
         <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -3506,7 +3457,7 @@
         <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -3530,7 +3481,7 @@
         <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -3554,7 +3505,7 @@
         <v>SINIMBU</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
@@ -3578,7 +3529,7 @@
         <v>SINIMBU</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
@@ -3602,7 +3553,7 @@
         <v>SINIMBU</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
@@ -3626,7 +3577,7 @@
         <v>SINIMBU</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
@@ -3650,7 +3601,7 @@
         <v>SINIMBU</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
@@ -3674,7 +3625,7 @@
         <v>SINIMBU</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
@@ -3698,7 +3649,7 @@
         <v>SANTO ANTONIO SALIG.</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
@@ -3722,7 +3673,7 @@
         <v>FORTALEZA</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>39</v>
       </c>
@@ -3746,7 +3697,7 @@
         <v>FORTALEZA</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
@@ -3770,7 +3721,7 @@
         <v>FORTALEZA</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>41</v>
       </c>
@@ -3794,7 +3745,7 @@
         <v>FORTALEZA</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
@@ -3837,6 +3788,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010029C947AC83F09F42937526FA4C3B2F0B" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c76eee49a865dbe713b2cfd386adcc48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="44d793b3-ee81-4ce8-b8ec-eb022d1da4c8" xmlns:ns3="992b5de9-d7c4-4c11-af05-7c0f6d15d2a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2cbf0d2c042e35d650edddd481e70c1e" ns2:_="" ns3:_="">
     <xsd:import namespace="44d793b3-ee81-4ce8-b8ec-eb022d1da4c8"/>
@@ -4053,22 +4019,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F035638-0916-4274-A1B6-7D831BF3E226}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="44d793b3-ee81-4ce8-b8ec-eb022d1da4c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="992b5de9-d7c4-4c11-af05-7c0f6d15d2a0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ED53755-58A3-4583-AA46-90E9773BFC17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A313BA7B-C984-489F-898D-BA45F17F45A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4085,29 +4061,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ED53755-58A3-4583-AA46-90E9773BFC17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F035638-0916-4274-A1B6-7D831BF3E226}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="44d793b3-ee81-4ce8-b8ec-eb022d1da4c8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="992b5de9-d7c4-4c11-af05-7c0f6d15d2a0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Dados/generic_input_case.xlsx
+++ b/Dados/generic_input_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabri\Desktop\Portifólio Python\TransformacaoDigital\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EB885A-B94C-436E-A76D-7B07C89B6D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56643B7F-9003-48F9-9C62-0C3CE2248A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="775" activeTab="5" xr2:uid="{B76C3656-19BD-4FF6-873F-76AE5964163A}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="71">
   <si>
     <t>MES</t>
   </si>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t>RSP_MAX</t>
-  </si>
-  <si>
-    <t>Fazenda</t>
   </si>
   <si>
     <t>RD</t>
@@ -753,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -770,7 +767,7 @@
         <v>2020</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -850,7 +847,7 @@
         <v>2020</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -930,7 +927,7 @@
         <v>2020</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1010,7 +1007,7 @@
         <v>2020</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1216,10 +1213,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1303,19 +1300,19 @@
         <v>51</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1344,7 +1341,7 @@
         <v>31.105940463689276</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M2" s="1">
         <v>100</v>
@@ -1376,7 +1373,7 @@
         <v>33.612012874385329</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M3" s="1">
         <v>50</v>
@@ -1408,7 +1405,7 @@
         <v>36.41509189466484</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M4" s="1">
         <v>200</v>
@@ -1440,7 +1437,7 @@
         <v>33.664280012639033</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -1469,7 +1466,7 @@
         <v>37.094202016539157</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -1498,7 +1495,7 @@
         <v>36.847675606582392</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -1527,7 +1524,7 @@
         <v>38.01921855157687</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -1556,7 +1553,7 @@
         <v>43.012443931398415</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -1585,7 +1582,7 @@
         <v>40.769955874489803</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -1614,7 +1611,7 @@
         <v>35.705445947553002</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -1645,7 +1642,7 @@
         <v>40.769955874489803</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -1674,7 +1671,7 @@
         <v>33.757295038359203</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -1703,7 +1700,7 @@
         <v>41.719651546151823</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -1732,7 +1729,7 @@
         <v>38.70298074942955</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -1761,7 +1758,7 @@
         <v>36.216732818894698</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1790,7 +1787,7 @@
         <v>36.357830602429061</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1819,7 +1816,7 @@
         <v>38.454954205598455</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1848,7 +1845,7 @@
         <v>39.123928185894655</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1877,7 +1874,7 @@
         <v>39.872852330729167</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -1906,7 +1903,7 @@
         <v>41.543043674671054</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -1935,7 +1932,7 @@
         <v>41.595753106122892</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -1964,7 +1961,7 @@
         <v>43.769052401896552</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -1993,7 +1990,7 @@
         <v>42.047073134257424</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -2022,7 +2019,7 @@
         <v>42.004693204411758</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -2051,7 +2048,7 @@
         <v>36.216732818894698</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -2080,7 +2077,7 @@
         <v>40.728798491739646</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -2772,7 +2769,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2786,7 +2783,7 @@
     <col min="7" max="7" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
@@ -2803,13 +2800,13 @@
         <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -2828,12 +2825,11 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <f>VLOOKUP(A2,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -2852,12 +2848,11 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="str">
-        <f>VLOOKUP(A3,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -2876,12 +2871,11 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="str">
-        <f>VLOOKUP(A4,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -2900,12 +2894,11 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="str">
-        <f>VLOOKUP(A5,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -2924,12 +2917,11 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="str">
-        <f>VLOOKUP(A6,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2948,12 +2940,11 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="str">
-        <f>VLOOKUP(A7,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -2972,12 +2963,11 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1" t="str">
-        <f>VLOOKUP(A8,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -2996,12 +2986,11 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1" t="str">
-        <f>VLOOKUP(A9,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -3020,12 +3009,11 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="1" t="str">
-        <f>VLOOKUP(A10,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
@@ -3044,12 +3032,11 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="1" t="str">
-        <f>VLOOKUP(A11,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
@@ -3068,12 +3055,11 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="1" t="str">
-        <f>VLOOKUP(A12,BD_UP!A:B,2,FALSE)</f>
-        <v>TURVO III (LEX)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -3092,12 +3078,11 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1" t="str">
-        <f>VLOOKUP(A13,BD_UP!A:B,2,FALSE)</f>
-        <v>TURVO III (LEX)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
@@ -3116,12 +3101,11 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1" t="str">
-        <f>VLOOKUP(A14,BD_UP!A:B,2,FALSE)</f>
-        <v>TURVO III (LEX)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
@@ -3140,12 +3124,11 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="1" t="str">
-        <f>VLOOKUP(A15,BD_UP!A:B,2,FALSE)</f>
-        <v>TURVO III (LEX)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -3164,12 +3147,11 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="1" t="str">
-        <f>VLOOKUP(A16,BD_UP!A:B,2,FALSE)</f>
-        <v>TURVO III (LEX)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3188,12 +3170,11 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="1" t="str">
-        <f>VLOOKUP(A17,BD_UP!A:B,2,FALSE)</f>
-        <v>TURVO III (LEX)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -3212,12 +3193,11 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="1" t="str">
-        <f>VLOOKUP(A18,BD_UP!A:B,2,FALSE)</f>
-        <v>TURVO III (LEX)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -3236,12 +3216,11 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="1" t="str">
-        <f>VLOOKUP(A19,BD_UP!A:B,2,FALSE)</f>
-        <v>TURVO III (LEX)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -3260,12 +3239,11 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="1" t="str">
-        <f>VLOOKUP(A20,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -3284,12 +3262,11 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="1" t="str">
-        <f>VLOOKUP(A21,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -3308,12 +3285,11 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-      <c r="G22" s="1" t="str">
-        <f>VLOOKUP(A22,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -3332,12 +3308,11 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="G23" s="1" t="str">
-        <f>VLOOKUP(A23,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
@@ -3356,12 +3331,11 @@
       <c r="F24" s="1">
         <v>0</v>
       </c>
-      <c r="G24" s="1" t="str">
-        <f>VLOOKUP(A24,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
@@ -3380,12 +3354,11 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="1" t="str">
-        <f>VLOOKUP(A25,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -3404,12 +3377,11 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="1" t="str">
-        <f>VLOOKUP(A26,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -3428,12 +3400,11 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="1" t="str">
-        <f>VLOOKUP(A27,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -3452,12 +3423,11 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="1" t="str">
-        <f>VLOOKUP(A28,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -3476,12 +3446,11 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-      <c r="G29" s="1" t="str">
-        <f>VLOOKUP(A29,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -3500,12 +3469,11 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="1" t="str">
-        <f>VLOOKUP(A30,BD_UP!A:B,2,FALSE)</f>
-        <v>SINIMBU</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
@@ -3524,12 +3492,11 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-      <c r="G31" s="1" t="str">
-        <f>VLOOKUP(A31,BD_UP!A:B,2,FALSE)</f>
-        <v>SINIMBU</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
@@ -3548,12 +3515,11 @@
       <c r="F32" s="1">
         <v>0</v>
       </c>
-      <c r="G32" s="1" t="str">
-        <f>VLOOKUP(A32,BD_UP!A:B,2,FALSE)</f>
-        <v>SINIMBU</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
@@ -3572,12 +3538,11 @@
       <c r="F33" s="1">
         <v>0</v>
       </c>
-      <c r="G33" s="1" t="str">
-        <f>VLOOKUP(A33,BD_UP!A:B,2,FALSE)</f>
-        <v>SINIMBU</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
@@ -3596,12 +3561,11 @@
       <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="G34" s="1" t="str">
-        <f>VLOOKUP(A34,BD_UP!A:B,2,FALSE)</f>
-        <v>SINIMBU</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
@@ -3620,12 +3584,11 @@
       <c r="F35" s="1">
         <v>0</v>
       </c>
-      <c r="G35" s="1" t="str">
-        <f>VLOOKUP(A35,BD_UP!A:B,2,FALSE)</f>
-        <v>SINIMBU</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
@@ -3644,12 +3607,11 @@
       <c r="F36" s="1">
         <v>0</v>
       </c>
-      <c r="G36" s="1" t="str">
-        <f>VLOOKUP(A36,BD_UP!A:B,2,FALSE)</f>
-        <v>SANTO ANTONIO SALIG.</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
@@ -3668,12 +3630,11 @@
       <c r="F37" s="1">
         <v>0</v>
       </c>
-      <c r="G37" s="1" t="str">
-        <f>VLOOKUP(A37,BD_UP!A:B,2,FALSE)</f>
-        <v>FORTALEZA</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>39</v>
       </c>
@@ -3692,12 +3653,11 @@
       <c r="F38" s="1">
         <v>0</v>
       </c>
-      <c r="G38" s="1" t="str">
-        <f>VLOOKUP(A38,BD_UP!A:B,2,FALSE)</f>
-        <v>FORTALEZA</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
@@ -3716,12 +3676,11 @@
       <c r="F39" s="1">
         <v>0</v>
       </c>
-      <c r="G39" s="1" t="str">
-        <f>VLOOKUP(A39,BD_UP!A:B,2,FALSE)</f>
-        <v>FORTALEZA</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>41</v>
       </c>
@@ -3740,12 +3699,11 @@
       <c r="F40" s="1">
         <v>0</v>
       </c>
-      <c r="G40" s="1" t="str">
-        <f>VLOOKUP(A40,BD_UP!A:B,2,FALSE)</f>
-        <v>FORTALEZA</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
@@ -3764,9 +3722,8 @@
       <c r="F41" s="1">
         <v>0</v>
       </c>
-      <c r="G41" s="1" t="str">
-        <f>VLOOKUP(A41,BD_UP!A:B,2,FALSE)</f>
-        <v>SIRIEMA</v>
+      <c r="G41" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3788,21 +3745,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010029C947AC83F09F42937526FA4C3B2F0B" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c76eee49a865dbe713b2cfd386adcc48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="44d793b3-ee81-4ce8-b8ec-eb022d1da4c8" xmlns:ns3="992b5de9-d7c4-4c11-af05-7c0f6d15d2a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2cbf0d2c042e35d650edddd481e70c1e" ns2:_="" ns3:_="">
     <xsd:import namespace="44d793b3-ee81-4ce8-b8ec-eb022d1da4c8"/>
@@ -4019,32 +3961,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F035638-0916-4274-A1B6-7D831BF3E226}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="44d793b3-ee81-4ce8-b8ec-eb022d1da4c8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="992b5de9-d7c4-4c11-af05-7c0f6d15d2a0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ED53755-58A3-4583-AA46-90E9773BFC17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A313BA7B-C984-489F-898D-BA45F17F45A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4061,4 +3993,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ED53755-58A3-4583-AA46-90E9773BFC17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F035638-0916-4274-A1B6-7D831BF3E226}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="44d793b3-ee81-4ce8-b8ec-eb022d1da4c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="992b5de9-d7c4-4c11-af05-7c0f6d15d2a0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Dados/generic_input_case.xlsx
+++ b/Dados/generic_input_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabri\Desktop\Portifólio Python\TransformacaoDigital\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56643B7F-9003-48F9-9C62-0C3CE2248A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44D367F8-F1D1-4B3D-82B8-81830D6B2BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="775" activeTab="5" xr2:uid="{B76C3656-19BD-4FF6-873F-76AE5964163A}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="72">
   <si>
     <t>MES</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>PORCENTAGEM_VEICULOS_MIN</t>
+  </si>
+  <si>
+    <t>Fazenda</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1269,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2769,7 +2772,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2803,7 +2806,7 @@
         <v>67</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">

--- a/Dados/generic_input_case.xlsx
+++ b/Dados/generic_input_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabri\Desktop\Portifólio Python\TransformacaoDigital\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44D367F8-F1D1-4B3D-82B8-81830D6B2BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD4D081-43A4-452D-9870-F48553ACD47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="775" activeTab="5" xr2:uid="{B76C3656-19BD-4FF6-873F-76AE5964163A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="775" activeTab="3" xr2:uid="{B76C3656-19BD-4FF6-873F-76AE5964163A}"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZONTE" sheetId="3" r:id="rId1"/>
@@ -21,11 +21,7 @@
     <sheet name="ROTA" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BD_UP!$A$1:$M$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FABRICA!$A$1:$F$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FROTA!$A$1:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GRUA!$A$1:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HORIZONTE!$A$1:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BD_UP!$A$1:$H$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ROTA!$A$1:$G$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -49,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="73">
   <si>
     <t>MES</t>
   </si>
@@ -228,9 +224,15 @@
     <t>RSP_MAX</t>
   </si>
   <si>
+    <t>Fazenda</t>
+  </si>
+  <si>
     <t>RD</t>
   </si>
   <si>
+    <t>Pegar com Italo do time do Clayton</t>
+  </si>
+  <si>
     <t>ANO</t>
   </si>
   <si>
@@ -262,19 +264,17 @@
   </si>
   <si>
     <t>PORCENTAGEM_VEICULOS_MIN</t>
-  </si>
-  <si>
-    <t>Fazenda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="d/m/yy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -363,58 +363,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -736,384 +723,383 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="18.81640625" style="1"/>
+    <col min="4" max="4" width="12.81640625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>67</v>
+      <c r="C1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>2020</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>68</v>
+      <c r="D2" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>2020</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>2020</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>2020</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>2020</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>2020</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>68</v>
+      <c r="D9" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>2020</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>2020</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>2020</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>2020</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>2020</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>5</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>2020</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>5</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>2020</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>68</v>
+      <c r="D16" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>5</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>2020</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>2020</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>2020</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>5</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>2020</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>2020</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>2020</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>5</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>2020</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>68</v>
+      <c r="D23" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>2020</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>5</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>2020</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>2020</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>2020</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>5</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>2020</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>5</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>2020</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>2020</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>5</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>2020</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>2020</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D32" xr:uid="{79D3A7D4-547B-438B-956B-5A95940CB742}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1123,74 +1109,75 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="21.7265625" style="1"/>
-    <col min="7" max="16384" width="21.7265625" style="1"/>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1">
+      <c r="B2" s="3"/>
+      <c r="C2">
         <v>25</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="1">
+      <c r="B3" s="3"/>
+      <c r="C3">
         <v>12</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="1">
+      <c r="B4" s="3"/>
+      <c r="C4">
         <v>19</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D4" xr:uid="{DA90DF08-8B5A-41E6-82F0-165DB116E093}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1203,60 +1190,61 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="43" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="43" style="1"/>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>70</v>
+      <c r="B1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="17">
         <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="17">
         <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="17">
         <v>0.4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C4" xr:uid="{0BF290B1-28DC-496B-99BF-CE1BF4EB76AF}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1266,835 +1254,851 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="13" width="24" style="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" customWidth="1"/>
+    <col min="8" max="8" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="8">
+        <v>475.59228965833381</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3700</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1.6221749557422769</v>
+      </c>
+      <c r="F2" s="10">
+        <v>43903</v>
+      </c>
+      <c r="G2" s="8">
+        <v>5.4099931553730318</v>
+      </c>
+      <c r="H2" s="8">
+        <v>31.105940463689276</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="10">
-        <v>475.59228965833381</v>
-      </c>
-      <c r="D2" s="10">
-        <v>3700</v>
-      </c>
-      <c r="E2" s="10">
-        <v>1.6221749557422769</v>
-      </c>
-      <c r="F2" s="11">
-        <v>43903</v>
-      </c>
-      <c r="G2" s="10">
-        <v>5.4099931553730318</v>
-      </c>
-      <c r="H2" s="10">
-        <v>31.105940463689276</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="8">
+        <v>462.15749645501194</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8405</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1.5198740867952001</v>
+      </c>
+      <c r="F3" s="10">
+        <v>43889</v>
+      </c>
+      <c r="G3" s="8">
+        <v>6.1245722108145104</v>
+      </c>
+      <c r="H3" s="8">
+        <v>33.612012874385329</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="10">
-        <v>462.15749645501194</v>
-      </c>
-      <c r="D3" s="10">
-        <v>8405</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1.5198740867952001</v>
-      </c>
-      <c r="F3" s="11">
-        <v>43889</v>
-      </c>
-      <c r="G3" s="10">
-        <v>6.1245722108145104</v>
-      </c>
-      <c r="H3" s="10">
-        <v>33.612012874385329</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="8">
+        <v>458.55081807639078</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5974</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.5052059546579886</v>
+      </c>
+      <c r="F4" s="10">
+        <v>43885</v>
+      </c>
+      <c r="G4" s="8">
+        <v>6.0041067761806985</v>
+      </c>
+      <c r="H4" s="8">
+        <v>36.41509189466484</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="10">
-        <v>458.55081807639078</v>
-      </c>
-      <c r="D4" s="10">
-        <v>5974</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1.5052059546579886</v>
-      </c>
-      <c r="F4" s="11">
-        <v>43885</v>
-      </c>
-      <c r="G4" s="10">
-        <v>6.0041067761806985</v>
-      </c>
-      <c r="H4" s="10">
-        <v>36.41509189466484</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>408.37627157534126</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>4791</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>1.3673991120765037</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>43900</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>5.415468856947296</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <v>33.664280012639033</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>473.89018761611379</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>5568.94</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>1.5502069140812391</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="9">
         <v>43845</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>6.0835044490075294</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>37.094202016539157</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>476.35931165453064</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>11874.5</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>1.5464966587104541</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="9">
         <v>43845</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <v>6.2806297056810401</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <v>36.847675606582392</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>475.08249720331162</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>3816.4900000000002</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>1.5401280319753075</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="9">
         <v>43845</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>6.2505133470225873</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <v>38.01921855157687</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>471.02679813113627</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>1300</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>1.5118232888064209</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="9">
         <v>43845</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <v>6.2258726899383987</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <v>43.012443931398415</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>410.08188877940256</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>2124.0700000000002</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>1.3022261539839008</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="9">
         <v>43845</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <v>6.0369609856262834</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="8">
         <v>40.769955874489803</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>489.65781411567627</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>12776.12</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>1.4414397793136209</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="9">
         <v>43862</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <v>9.3552361396303905</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="8">
         <v>35.705445947553002</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>450</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>4960</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>1.44</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="9">
         <v>43862</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <v>6.0369609856262834</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="8">
         <v>40.769955874489803</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>471.88326453558943</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>16280.54</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>1.4101627217065384</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="9">
         <v>43862</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="8">
         <v>9.6591375770020527</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="8">
         <v>33.757295038359203</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>485.30023274972274</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>3320</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>1.4031366250752249</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="9">
         <v>43862</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="8">
         <v>9.4236824093086931</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="8">
         <v>41.719651546151823</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>467.55335131606887</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>18533.080000000002</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>1.3785303023915199</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="9">
         <v>43862</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="8">
         <v>9.5989048596851472</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="8">
         <v>38.70298074942955</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="J15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>450</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>12700</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="8">
         <v>1.44</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>43775</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="8">
         <v>7.3319644079397674</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="8">
         <v>36.216732818894698</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>482.77694359091134</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>4300</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <v>1.5621938037129575</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>43850</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="8">
         <v>6.368240930869268</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
         <v>36.357830602429061</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="J17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>481.23848707688614</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>800</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <v>1.5490566931886653</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>43857</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="8">
         <v>6.3819301848049284</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="8">
         <v>38.454954205598455</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="J18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="8">
         <v>479.65062513371606</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>1100</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <v>1.5474716699257756</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>43840</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="8">
         <v>6.2888432580424363</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="8">
         <v>39.123928185894655</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="J19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <v>479.28655319658702</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>1150</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="8">
         <v>1.5425665925371712</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>43838</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="8">
         <v>6.3080082135523616</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="8">
         <v>39.872852330729167</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="J20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8">
         <v>477.26180002542424</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <v>1960</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="8">
         <v>1.5346621322526182</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>43819</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="8">
         <v>6.2422997946611911</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="8">
         <v>41.543043674671054</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="J21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <v>478.19074256380969</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>12000</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <v>1.5321403213808318</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>43853</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="8">
         <v>6.3271731690622861</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="8">
         <v>41.595753106122892</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="J22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <v>406.66630184619771</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>4500</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="8">
         <v>1.28900273285943</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>43837</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="8">
         <v>5.8891170431211499</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="8">
         <v>43.769052401896552</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+      <c r="J23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="8">
         <v>484.25382589730782</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>13664</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="8">
         <v>1.515093704135877</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="9">
         <v>43800</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="8">
         <v>6.9130732375085557</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="8">
         <v>42.047073134257424</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+      <c r="J24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <v>485.00174033075893</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>21296</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="8">
         <v>1.5137395500857309</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="9">
         <v>43800</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="8">
         <v>6.9815195071868583</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="8">
         <v>42.004693204411758</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+      <c r="J25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <v>493.2032472949478</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>9830.2599999999948</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="8">
         <v>1.4790448823362998</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="9">
         <v>43800</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="8">
         <v>7.3319644079397674</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="8">
         <v>36.216732818894698</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+      <c r="J26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <v>494.98742256873771</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>14000</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <v>1.443982454918312</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="9">
         <v>43800</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
         <v>6.8774811772758389</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="8">
         <v>40.728798491739646</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="J27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M27" xr:uid="{BA105F68-BC88-49C9-83F1-33D60298D00F}"/>
+  <autoFilter ref="A1:H27" xr:uid="{21D45CCD-3536-40EC-9DE6-9518685AF161}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H27">
+      <sortCondition ref="B1:B27"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -2107,660 +2111,659 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="23.7265625" style="1"/>
-    <col min="3" max="4" width="23.7265625" style="17"/>
-    <col min="5" max="16384" width="23.7265625" style="1"/>
+    <col min="3" max="3" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="17">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1">
         <v>6400</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="1">
         <v>8000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>1.4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>1.49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1">
         <v>6400</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="1">
         <v>8000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>1.4</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>1.49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1">
         <v>6400</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="1">
         <v>8000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>1.4</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>1.49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="17">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1">
         <v>6400</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="1">
         <v>8000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>1.4</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>1.49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="17">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1">
         <v>6400</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="1">
         <v>8000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>1.4</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>1.49</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="17">
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1">
         <v>6400</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="1">
         <v>8000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>1.4</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>1.49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1">
         <v>6400</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="1">
         <v>8000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>1.4</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>1.49</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1">
         <v>6400</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="1">
         <v>8000</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>1.4</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>1.49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="17">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1">
         <v>6400</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="1">
         <v>8000</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>1.4</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>1.49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="17">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1">
         <v>6400</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="1">
         <v>8000</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>1.4</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>1.49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="17">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1">
         <v>6400</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="1">
         <v>8000</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>1.4</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>1.49</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="17">
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1">
         <v>6400</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="1">
         <v>8000</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>1.4</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>1.49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="17">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1">
         <v>6400</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="1">
         <v>8000</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>1.4</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>1.49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="17">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1">
         <v>6400</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="1">
         <v>8000</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>1.4</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>1.49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="17">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1">
         <v>6400</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="1">
         <v>8000</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>1.4</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>1.49</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="17">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1">
         <v>6400</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="1">
         <v>8000</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>1.4</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>1.49</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="17">
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1">
         <v>6400</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="1">
         <v>8000</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>1.4</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>1.49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="17">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1">
         <v>6400</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="1">
         <v>8000</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>1.4</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>1.49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="17">
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1">
         <v>6400</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="1">
         <v>8000</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>1.4</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>1.49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="17">
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1">
         <v>6400</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="1">
         <v>8000</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>1.4</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>1.49</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="17">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1">
         <v>6400</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="1">
         <v>8000</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>1.4</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>1.49</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="17">
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1">
         <v>6400</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="1">
         <v>8000</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>1.4</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>1.49</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="17">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1">
         <v>6400</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="1">
         <v>8000</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>1.4</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>1.49</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="17">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1">
         <v>6400</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="1">
         <v>8000</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>1.4</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>1.49</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="17">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="1">
         <v>6400</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="1">
         <v>8000</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>1.4</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <v>1.49</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="17">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1">
         <v>6400</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="1">
         <v>8000</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>1.4</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27">
         <v>1.49</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="17">
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="1">
         <v>6400</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="1">
         <v>8000</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>1.4</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28">
         <v>1.49</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="17">
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1">
         <v>6400</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="1">
         <v>8000</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>1.4</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>1.49</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="17">
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1">
         <v>6400</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="1">
         <v>8000</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>1.4</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>1.49</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="17">
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="1">
         <v>6400</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="1">
         <v>8000</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>1.4</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>1.49</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="17">
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="1">
         <v>6400</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="1">
         <v>8000</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>1.4</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>1.49</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F32" xr:uid="{FD338BFE-5346-4B21-B240-8E7FF1BFDEE9}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2771,966 +2774,1004 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>71</v>
+      <c r="F1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>66</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>1.8</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
+      <c r="G2" t="str">
+        <f>VLOOKUP(A2,BD_UP!A:B,2,FALSE)</f>
+        <v>INDIANA II</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>66</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>1.8</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
+      <c r="G3" t="str">
+        <f>VLOOKUP(A3,BD_UP!A:B,2,FALSE)</f>
+        <v>INDIANA II</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>66</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>1.8</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
+      <c r="G4" t="str">
+        <f>VLOOKUP(A4,BD_UP!A:B,2,FALSE)</f>
+        <v>INDIANA II</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>66</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>1.8</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
+      <c r="G5" t="str">
+        <f>VLOOKUP(A5,BD_UP!A:B,2,FALSE)</f>
+        <v>INDIANA II</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>66</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>1.8</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
+      <c r="G6" t="str">
+        <f>VLOOKUP(A6,BD_UP!A:B,2,FALSE)</f>
+        <v>INDIANA II</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>66</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>1.8</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
+      <c r="G7" t="str">
+        <f>VLOOKUP(A7,BD_UP!A:B,2,FALSE)</f>
+        <v>INDIANA II</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>66</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>1.8</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
+      <c r="G8" t="str">
+        <f>VLOOKUP(A8,BD_UP!A:B,2,FALSE)</f>
+        <v>INDIANA II</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>66</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>1.8</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
+      <c r="G9" t="str">
+        <f>VLOOKUP(A9,BD_UP!A:B,2,FALSE)</f>
+        <v>INDIANA II</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>66</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>1.8</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
+      <c r="G10" t="str">
+        <f>VLOOKUP(A10,BD_UP!A:B,2,FALSE)</f>
+        <v>INDIANA II</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>66</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>1.8</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
+      <c r="G11" t="str">
+        <f>VLOOKUP(A11,BD_UP!A:B,2,FALSE)</f>
+        <v>INDIANA II</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>66</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>1.4</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>18</v>
+      <c r="G12" t="str">
+        <f>VLOOKUP(A12,BD_UP!A:B,2,FALSE)</f>
+        <v>TURVO III (LEX)</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>66</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>1.4</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>18</v>
+      <c r="G13" t="str">
+        <f>VLOOKUP(A13,BD_UP!A:B,2,FALSE)</f>
+        <v>TURVO III (LEX)</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>66</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>1.4</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>18</v>
+      <c r="G14" t="str">
+        <f>VLOOKUP(A14,BD_UP!A:B,2,FALSE)</f>
+        <v>TURVO III (LEX)</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>66</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>1.4</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>18</v>
+      <c r="G15" t="str">
+        <f>VLOOKUP(A15,BD_UP!A:B,2,FALSE)</f>
+        <v>TURVO III (LEX)</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>66</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>1.4</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>18</v>
+      <c r="G16" t="str">
+        <f>VLOOKUP(A16,BD_UP!A:B,2,FALSE)</f>
+        <v>TURVO III (LEX)</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>66</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>1.4</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>18</v>
+      <c r="G17" t="str">
+        <f>VLOOKUP(A17,BD_UP!A:B,2,FALSE)</f>
+        <v>TURVO III (LEX)</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>66</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>1.4</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>18</v>
+      <c r="G18" t="str">
+        <f>VLOOKUP(A18,BD_UP!A:B,2,FALSE)</f>
+        <v>TURVO III (LEX)</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>66</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>1.4</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>18</v>
+      <c r="G19" t="str">
+        <f>VLOOKUP(A19,BD_UP!A:B,2,FALSE)</f>
+        <v>TURVO III (LEX)</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>66</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>1.5</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>23</v>
+      <c r="G20" t="str">
+        <f>VLOOKUP(A20,BD_UP!A:B,2,FALSE)</f>
+        <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>66</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>1.5</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>23</v>
+      <c r="G21" t="str">
+        <f>VLOOKUP(A21,BD_UP!A:B,2,FALSE)</f>
+        <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>66</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>1.5</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>23</v>
+      <c r="G22" t="str">
+        <f>VLOOKUP(A22,BD_UP!A:B,2,FALSE)</f>
+        <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>66</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>1.5</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>23</v>
+      <c r="G23" t="str">
+        <f>VLOOKUP(A23,BD_UP!A:B,2,FALSE)</f>
+        <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>66</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>1.5</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>23</v>
+      <c r="G24" t="str">
+        <f>VLOOKUP(A24,BD_UP!A:B,2,FALSE)</f>
+        <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>66</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>1.5</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>23</v>
+      <c r="G25" t="str">
+        <f>VLOOKUP(A25,BD_UP!A:B,2,FALSE)</f>
+        <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>66</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>1.5</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>23</v>
+      <c r="G26" t="str">
+        <f>VLOOKUP(A26,BD_UP!A:B,2,FALSE)</f>
+        <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>66</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>1.5</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>23</v>
+      <c r="G27" t="str">
+        <f>VLOOKUP(A27,BD_UP!A:B,2,FALSE)</f>
+        <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>66</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>1.5</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>23</v>
+      <c r="G28" t="str">
+        <f>VLOOKUP(A28,BD_UP!A:B,2,FALSE)</f>
+        <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>66</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>1.5</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>23</v>
+      <c r="G29" t="str">
+        <f>VLOOKUP(A29,BD_UP!A:B,2,FALSE)</f>
+        <v>PIRACEMA_GLEBA PULADOR - DX</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>66</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>2.5</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>29</v>
+      <c r="G30" t="str">
+        <f>VLOOKUP(A30,BD_UP!A:B,2,FALSE)</f>
+        <v>SINIMBU</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>66</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>2.5</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>29</v>
+      <c r="G31" t="str">
+        <f>VLOOKUP(A31,BD_UP!A:B,2,FALSE)</f>
+        <v>SINIMBU</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>66</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>2.5</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>29</v>
+      <c r="G32" t="str">
+        <f>VLOOKUP(A32,BD_UP!A:B,2,FALSE)</f>
+        <v>SINIMBU</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>66</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>2.5</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>29</v>
+      <c r="G33" t="str">
+        <f>VLOOKUP(A33,BD_UP!A:B,2,FALSE)</f>
+        <v>SINIMBU</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>66</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>2.5</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>29</v>
+      <c r="G34" t="str">
+        <f>VLOOKUP(A34,BD_UP!A:B,2,FALSE)</f>
+        <v>SINIMBU</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>66</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>2.5</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>29</v>
+      <c r="G35" t="str">
+        <f>VLOOKUP(A35,BD_UP!A:B,2,FALSE)</f>
+        <v>SINIMBU</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>66</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>36</v>
+      <c r="G36" t="str">
+        <f>VLOOKUP(A36,BD_UP!A:B,2,FALSE)</f>
+        <v>SANTO ANTONIO SALIG.</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>66</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>2.1</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>38</v>
+      <c r="G37" t="str">
+        <f>VLOOKUP(A37,BD_UP!A:B,2,FALSE)</f>
+        <v>FORTALEZA</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>66</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>2.1</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>38</v>
+      <c r="G38" t="str">
+        <f>VLOOKUP(A38,BD_UP!A:B,2,FALSE)</f>
+        <v>FORTALEZA</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>66</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>2.1</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39">
         <v>0</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>38</v>
+      <c r="G39" t="str">
+        <f>VLOOKUP(A39,BD_UP!A:B,2,FALSE)</f>
+        <v>FORTALEZA</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>66</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
         <v>2.1</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>38</v>
+      <c r="G40" t="str">
+        <f>VLOOKUP(A40,BD_UP!A:B,2,FALSE)</f>
+        <v>FORTALEZA</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>66</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>2.5</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>43</v>
+      <c r="G41" t="str">
+        <f>VLOOKUP(A41,BD_UP!A:B,2,FALSE)</f>
+        <v>SIRIEMA</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G41" xr:uid="{CA7686C2-AC0A-4C30-AB98-959C5A0E7DD3}"/>
+  <autoFilter ref="A1:G41" xr:uid="{797949FC-CD16-4A11-A378-D9A0923F7A41}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -3748,6 +3789,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010029C947AC83F09F42937526FA4C3B2F0B" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c76eee49a865dbe713b2cfd386adcc48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="44d793b3-ee81-4ce8-b8ec-eb022d1da4c8" xmlns:ns3="992b5de9-d7c4-4c11-af05-7c0f6d15d2a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2cbf0d2c042e35d650edddd481e70c1e" ns2:_="" ns3:_="">
     <xsd:import namespace="44d793b3-ee81-4ce8-b8ec-eb022d1da4c8"/>
@@ -3964,15 +4014,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3980,6 +4021,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ED53755-58A3-4583-AA46-90E9773BFC17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A313BA7B-C984-489F-898D-BA45F17F45A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3994,14 +4043,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ED53755-58A3-4583-AA46-90E9773BFC17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Dados/generic_input_case.xlsx
+++ b/Dados/generic_input_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabri\Desktop\Portifólio Python\TransformacaoDigital\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD4D081-43A4-452D-9870-F48553ACD47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24BAC8BE-93D0-440F-8942-4A82BC023BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="775" activeTab="3" xr2:uid="{B76C3656-19BD-4FF6-873F-76AE5964163A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="775" activeTab="5" xr2:uid="{B76C3656-19BD-4FF6-873F-76AE5964163A}"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZONTE" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="ROTA" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BD_UP!$A$1:$H$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BD_UP!$A$1:$N$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ROTA!$A$1:$G$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="73">
   <si>
     <t>MES</t>
   </si>
@@ -363,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -403,6 +403,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,7 +727,7 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1256,8 +1260,8 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2094,11 +2098,7 @@
       <c r="H28" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H27" xr:uid="{21D45CCD-3536-40EC-9DE6-9518685AF161}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H27">
-      <sortCondition ref="B1:B27"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:N27" xr:uid="{BA105F68-BC88-49C9-83F1-33D60298D00F}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -2774,16 +2774,16 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2797,13 +2797,13 @@
       <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="19" t="s">
         <v>69</v>
       </c>
       <c r="G1" s="14" t="s">
@@ -2811,7 +2811,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
@@ -2820,22 +2820,21 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="22">
         <v>66</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="21">
         <v>1.8</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="21">
         <v>0</v>
       </c>
-      <c r="G2" t="str">
-        <f>VLOOKUP(A2,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
@@ -2844,22 +2843,21 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="22">
         <v>66</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="21">
         <v>1.8</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="21">
         <v>0</v>
       </c>
-      <c r="G3" t="str">
-        <f>VLOOKUP(A3,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
+      <c r="G3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
@@ -2868,22 +2866,21 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="22">
         <v>66</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="21">
         <v>1.8</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="21">
         <v>0</v>
       </c>
-      <c r="G4" t="str">
-        <f>VLOOKUP(A4,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
+      <c r="G4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
@@ -2892,22 +2889,21 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="22">
         <v>66</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="21">
         <v>1.8</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="21">
         <v>0</v>
       </c>
-      <c r="G5" t="str">
-        <f>VLOOKUP(A5,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
+      <c r="G5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
@@ -2916,22 +2912,21 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="22">
         <v>66</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="21">
         <v>1.8</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="21">
         <v>0</v>
       </c>
-      <c r="G6" t="str">
-        <f>VLOOKUP(A6,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
+      <c r="G6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
@@ -2940,22 +2935,21 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="22">
         <v>66</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="21">
         <v>1.8</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="21">
         <v>0</v>
       </c>
-      <c r="G7" t="str">
-        <f>VLOOKUP(A7,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
+      <c r="G7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
@@ -2964,22 +2958,21 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="22">
         <v>66</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="21">
         <v>1.8</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="21">
         <v>0</v>
       </c>
-      <c r="G8" t="str">
-        <f>VLOOKUP(A8,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
+      <c r="G8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
@@ -2988,22 +2981,21 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="22">
         <v>66</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="21">
         <v>1.8</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="21">
         <v>0</v>
       </c>
-      <c r="G9" t="str">
-        <f>VLOOKUP(A9,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
+      <c r="G9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
@@ -3012,22 +3004,21 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="22">
         <v>66</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="21">
         <v>1.8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="21">
         <v>0</v>
       </c>
-      <c r="G10" t="str">
-        <f>VLOOKUP(A10,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
+      <c r="G10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
@@ -3036,22 +3027,21 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="22">
         <v>66</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="21">
         <v>1.8</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="21">
         <v>0</v>
       </c>
-      <c r="G11" t="str">
-        <f>VLOOKUP(A11,BD_UP!A:B,2,FALSE)</f>
-        <v>INDIANA II</v>
+      <c r="G11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
@@ -3060,22 +3050,21 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="22">
         <v>66</v>
       </c>
-      <c r="E12">
-        <v>1.4</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F12" s="21">
         <v>0</v>
       </c>
-      <c r="G12" t="str">
-        <f>VLOOKUP(A12,BD_UP!A:B,2,FALSE)</f>
-        <v>TURVO III (LEX)</v>
+      <c r="G12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
@@ -3084,22 +3073,21 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="22">
         <v>66</v>
       </c>
-      <c r="E13">
-        <v>1.4</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F13" s="21">
         <v>0</v>
       </c>
-      <c r="G13" t="str">
-        <f>VLOOKUP(A13,BD_UP!A:B,2,FALSE)</f>
-        <v>TURVO III (LEX)</v>
+      <c r="G13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
@@ -3108,22 +3096,21 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="22">
         <v>66</v>
       </c>
-      <c r="E14">
-        <v>1.4</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F14" s="21">
         <v>0</v>
       </c>
-      <c r="G14" t="str">
-        <f>VLOOKUP(A14,BD_UP!A:B,2,FALSE)</f>
-        <v>TURVO III (LEX)</v>
+      <c r="G14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
@@ -3132,22 +3119,21 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="22">
         <v>66</v>
       </c>
-      <c r="E15">
-        <v>1.4</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F15" s="21">
         <v>0</v>
       </c>
-      <c r="G15" t="str">
-        <f>VLOOKUP(A15,BD_UP!A:B,2,FALSE)</f>
-        <v>TURVO III (LEX)</v>
+      <c r="G15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
@@ -3156,22 +3142,21 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="22">
         <v>66</v>
       </c>
-      <c r="E16">
-        <v>1.4</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F16" s="21">
         <v>0</v>
       </c>
-      <c r="G16" t="str">
-        <f>VLOOKUP(A16,BD_UP!A:B,2,FALSE)</f>
-        <v>TURVO III (LEX)</v>
+      <c r="G16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
@@ -3180,22 +3165,21 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="22">
         <v>66</v>
       </c>
-      <c r="E17">
-        <v>1.4</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F17" s="21">
         <v>0</v>
       </c>
-      <c r="G17" t="str">
-        <f>VLOOKUP(A17,BD_UP!A:B,2,FALSE)</f>
-        <v>TURVO III (LEX)</v>
+      <c r="G17" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
@@ -3204,22 +3188,21 @@
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="22">
         <v>66</v>
       </c>
-      <c r="E18">
-        <v>1.4</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F18" s="21">
         <v>0</v>
       </c>
-      <c r="G18" t="str">
-        <f>VLOOKUP(A18,BD_UP!A:B,2,FALSE)</f>
-        <v>TURVO III (LEX)</v>
+      <c r="G18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
@@ -3228,22 +3211,21 @@
       <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="22">
         <v>66</v>
       </c>
-      <c r="E19">
-        <v>1.4</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F19" s="21">
         <v>0</v>
       </c>
-      <c r="G19" t="str">
-        <f>VLOOKUP(A19,BD_UP!A:B,2,FALSE)</f>
-        <v>TURVO III (LEX)</v>
+      <c r="G19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
@@ -3252,22 +3234,21 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="22">
         <v>66</v>
       </c>
-      <c r="E20">
-        <v>1.5</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F20" s="21">
         <v>0</v>
       </c>
-      <c r="G20" t="str">
-        <f>VLOOKUP(A20,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
+      <c r="G20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
@@ -3276,22 +3257,21 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="22">
         <v>66</v>
       </c>
-      <c r="E21">
-        <v>1.5</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F21" s="21">
         <v>0</v>
       </c>
-      <c r="G21" t="str">
-        <f>VLOOKUP(A21,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
+      <c r="G21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
@@ -3300,22 +3280,21 @@
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="22">
         <v>66</v>
       </c>
-      <c r="E22">
-        <v>1.5</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F22" s="21">
         <v>0</v>
       </c>
-      <c r="G22" t="str">
-        <f>VLOOKUP(A22,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
+      <c r="G22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
@@ -3324,22 +3303,21 @@
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="22">
         <v>66</v>
       </c>
-      <c r="E23">
-        <v>1.5</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F23" s="21">
         <v>0</v>
       </c>
-      <c r="G23" t="str">
-        <f>VLOOKUP(A23,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
+      <c r="G23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
@@ -3348,22 +3326,21 @@
       <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="22">
         <v>66</v>
       </c>
-      <c r="E24">
-        <v>1.5</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F24" s="21">
         <v>0</v>
       </c>
-      <c r="G24" t="str">
-        <f>VLOOKUP(A24,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
+      <c r="G24" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
@@ -3372,22 +3349,21 @@
       <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="22">
         <v>66</v>
       </c>
-      <c r="E25">
-        <v>1.5</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F25" s="21">
         <v>0</v>
       </c>
-      <c r="G25" t="str">
-        <f>VLOOKUP(A25,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
+      <c r="G25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -3396,22 +3372,21 @@
       <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="22">
         <v>66</v>
       </c>
-      <c r="E26">
-        <v>1.5</v>
-      </c>
-      <c r="F26">
+      <c r="E26" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F26" s="21">
         <v>0</v>
       </c>
-      <c r="G26" t="str">
-        <f>VLOOKUP(A26,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
+      <c r="G26" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -3420,22 +3395,21 @@
       <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="22">
         <v>66</v>
       </c>
-      <c r="E27">
-        <v>1.5</v>
-      </c>
-      <c r="F27">
+      <c r="E27" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F27" s="21">
         <v>0</v>
       </c>
-      <c r="G27" t="str">
-        <f>VLOOKUP(A27,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
+      <c r="G27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -3444,22 +3418,21 @@
       <c r="C28" t="s">
         <v>7</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="22">
         <v>66</v>
       </c>
-      <c r="E28">
-        <v>1.5</v>
-      </c>
-      <c r="F28">
+      <c r="E28" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F28" s="21">
         <v>0</v>
       </c>
-      <c r="G28" t="str">
-        <f>VLOOKUP(A28,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
+      <c r="G28" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -3468,22 +3441,21 @@
       <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="22">
         <v>66</v>
       </c>
-      <c r="E29">
-        <v>1.5</v>
-      </c>
-      <c r="F29">
+      <c r="E29" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F29" s="21">
         <v>0</v>
       </c>
-      <c r="G29" t="str">
-        <f>VLOOKUP(A29,BD_UP!A:B,2,FALSE)</f>
-        <v>PIRACEMA_GLEBA PULADOR - DX</v>
+      <c r="G29" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -3492,22 +3464,21 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="22">
         <v>66</v>
       </c>
-      <c r="E30">
-        <v>2.5</v>
-      </c>
-      <c r="F30">
+      <c r="E30" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F30" s="21">
         <v>0</v>
       </c>
-      <c r="G30" t="str">
-        <f>VLOOKUP(A30,BD_UP!A:B,2,FALSE)</f>
-        <v>SINIMBU</v>
+      <c r="G30" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -3516,22 +3487,21 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="22">
         <v>66</v>
       </c>
-      <c r="E31">
-        <v>2.5</v>
-      </c>
-      <c r="F31">
+      <c r="E31" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F31" s="21">
         <v>0</v>
       </c>
-      <c r="G31" t="str">
-        <f>VLOOKUP(A31,BD_UP!A:B,2,FALSE)</f>
-        <v>SINIMBU</v>
+      <c r="G31" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -3540,22 +3510,21 @@
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="22">
         <v>66</v>
       </c>
-      <c r="E32">
-        <v>2.5</v>
-      </c>
-      <c r="F32">
+      <c r="E32" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F32" s="21">
         <v>0</v>
       </c>
-      <c r="G32" t="str">
-        <f>VLOOKUP(A32,BD_UP!A:B,2,FALSE)</f>
-        <v>SINIMBU</v>
+      <c r="G32" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -3564,22 +3533,21 @@
       <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="22">
         <v>66</v>
       </c>
-      <c r="E33">
-        <v>2.5</v>
-      </c>
-      <c r="F33">
+      <c r="E33" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F33" s="21">
         <v>0</v>
       </c>
-      <c r="G33" t="str">
-        <f>VLOOKUP(A33,BD_UP!A:B,2,FALSE)</f>
-        <v>SINIMBU</v>
+      <c r="G33" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -3588,22 +3556,21 @@
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="22">
         <v>66</v>
       </c>
-      <c r="E34">
-        <v>2.5</v>
-      </c>
-      <c r="F34">
+      <c r="E34" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F34" s="21">
         <v>0</v>
       </c>
-      <c r="G34" t="str">
-        <f>VLOOKUP(A34,BD_UP!A:B,2,FALSE)</f>
-        <v>SINIMBU</v>
+      <c r="G34" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -3612,22 +3579,21 @@
       <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="22">
         <v>66</v>
       </c>
-      <c r="E35">
-        <v>2.5</v>
-      </c>
-      <c r="F35">
+      <c r="E35" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F35" s="21">
         <v>0</v>
       </c>
-      <c r="G35" t="str">
-        <f>VLOOKUP(A35,BD_UP!A:B,2,FALSE)</f>
-        <v>SINIMBU</v>
+      <c r="G35" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -3636,22 +3602,21 @@
       <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="22">
         <v>66</v>
       </c>
-      <c r="E36">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F36">
+      <c r="E36" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F36" s="21">
         <v>0</v>
       </c>
-      <c r="G36" t="str">
-        <f>VLOOKUP(A36,BD_UP!A:B,2,FALSE)</f>
-        <v>SANTO ANTONIO SALIG.</v>
+      <c r="G36" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
@@ -3660,22 +3625,21 @@
       <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="22">
         <v>66</v>
       </c>
-      <c r="E37">
-        <v>2.1</v>
-      </c>
-      <c r="F37">
+      <c r="E37" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F37" s="21">
         <v>0</v>
       </c>
-      <c r="G37" t="str">
-        <f>VLOOKUP(A37,BD_UP!A:B,2,FALSE)</f>
-        <v>FORTALEZA</v>
+      <c r="G37" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+      <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
@@ -3684,22 +3648,21 @@
       <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="22">
         <v>66</v>
       </c>
-      <c r="E38">
-        <v>2.1</v>
-      </c>
-      <c r="F38">
+      <c r="E38" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F38" s="21">
         <v>0</v>
       </c>
-      <c r="G38" t="str">
-        <f>VLOOKUP(A38,BD_UP!A:B,2,FALSE)</f>
-        <v>FORTALEZA</v>
+      <c r="G38" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+      <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
@@ -3708,22 +3671,21 @@
       <c r="C39" t="s">
         <v>8</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="22">
         <v>66</v>
       </c>
-      <c r="E39">
-        <v>2.1</v>
-      </c>
-      <c r="F39">
+      <c r="E39" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F39" s="21">
         <v>0</v>
       </c>
-      <c r="G39" t="str">
-        <f>VLOOKUP(A39,BD_UP!A:B,2,FALSE)</f>
-        <v>FORTALEZA</v>
+      <c r="G39" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
+      <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
@@ -3732,22 +3694,21 @@
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="22">
         <v>66</v>
       </c>
-      <c r="E40">
-        <v>2.1</v>
-      </c>
-      <c r="F40">
+      <c r="E40" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F40" s="21">
         <v>0</v>
       </c>
-      <c r="G40" t="str">
-        <f>VLOOKUP(A40,BD_UP!A:B,2,FALSE)</f>
-        <v>FORTALEZA</v>
+      <c r="G40" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+      <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
@@ -3756,18 +3717,17 @@
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="22">
         <v>66</v>
       </c>
-      <c r="E41">
-        <v>2.5</v>
-      </c>
-      <c r="F41">
+      <c r="E41" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="F41" s="21">
         <v>0</v>
       </c>
-      <c r="G41" t="str">
-        <f>VLOOKUP(A41,BD_UP!A:B,2,FALSE)</f>
-        <v>SIRIEMA</v>
+      <c r="G41" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3780,7 +3740,7 @@
           <x14:formula1>
             <xm:f>FROTA!$A$2:$A$500</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>C1 C42:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3798,6 +3758,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010029C947AC83F09F42937526FA4C3B2F0B" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c76eee49a865dbe713b2cfd386adcc48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="44d793b3-ee81-4ce8-b8ec-eb022d1da4c8" xmlns:ns3="992b5de9-d7c4-4c11-af05-7c0f6d15d2a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2cbf0d2c042e35d650edddd481e70c1e" ns2:_="" ns3:_="">
     <xsd:import namespace="44d793b3-ee81-4ce8-b8ec-eb022d1da4c8"/>
@@ -4014,12 +3980,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ED53755-58A3-4583-AA46-90E9773BFC17}">
   <ds:schemaRefs>
@@ -4029,6 +3989,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F035638-0916-4274-A1B6-7D831BF3E226}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="44d793b3-ee81-4ce8-b8ec-eb022d1da4c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="992b5de9-d7c4-4c11-af05-7c0f6d15d2a0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A313BA7B-C984-489F-898D-BA45F17F45A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4045,21 +4022,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F035638-0916-4274-A1B6-7D831BF3E226}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="44d793b3-ee81-4ce8-b8ec-eb022d1da4c8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="992b5de9-d7c4-4c11-af05-7c0f6d15d2a0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>